--- a/PFF_SCR_TAX_ADAM/011124_analysis_by_inclusion_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/011124_analysis_by_inclusion_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,66 +453,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_04</t>
+          <t>1K_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>98</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_04</t>
+          <t>1K_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_10</t>
+          <t>1K_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_10</t>
+          <t>1K_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_10</t>
+          <t>1K_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -811,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -837,7 +837,7 @@
         <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>16</v>
       </c>
       <c r="C32" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -915,20 +915,20 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1K_SCR_05</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>162</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>50</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -1045,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -1058,59 +1058,59 @@
         <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>69</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C60" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>177</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C62" t="n">
-        <v>62</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C63" t="n">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C64" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
@@ -1276,348 +1276,608 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C65" t="n">
-        <v>209</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="n">
         <v>16</v>
-      </c>
-      <c r="C69" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_07</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>197</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_07</t>
+          <t>1K_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>35</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>WT_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>15</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>WT_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>177</v>
+        <v>773</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>16</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>WT_SCR_03</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_SCR_03</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_SCR_03</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>663</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_05</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>464</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_SCR_07</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>199</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>612</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_08</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_SCR_10</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>27</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_07</t>
+          <t>WT_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>221</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
           <t>WT_TAX1BP1_09</t>
         </is>
       </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" t="n">
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
         <v>111</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>4</v>
+      </c>
+      <c r="C108" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>6</v>
+      </c>
+      <c r="C110" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>7</v>
+      </c>
+      <c r="C111" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/PFF_SCR_TAX_ADAM/011124_analysis_by_inclusion_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/011124_analysis_by_inclusion_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
@@ -473,33 +473,33 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>190</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_03</t>
+          <t>1K_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>133</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_04</t>
+          <t>1K_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>98</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -626,296 +626,296 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>56</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_SCR_04</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>340</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1K_SCR_05</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1K_SCR_05</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C38" t="n">
-        <v>103</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>129</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="n">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
@@ -1045,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48">
@@ -1058,147 +1058,147 @@
         <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C49" t="n">
-        <v>11</v>
+        <v>767</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C50" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C51" t="n">
-        <v>30</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C53" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C54" t="n">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C55" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C56" t="n">
-        <v>13</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C57" t="n">
-        <v>28</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C58" t="n">
-        <v>154</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C59" t="n">
         <v>47</v>
@@ -1207,677 +1207,1600 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C60" t="n">
-        <v>54</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B61" t="n">
+        <v>22</v>
+      </c>
+      <c r="C61" t="n">
         <v>12</v>
-      </c>
-      <c r="C61" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C62" t="n">
-        <v>174</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C63" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C64" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C65" t="n">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_05</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C66" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_05</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C67" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_05</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C68" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_05</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>16</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_07</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>416</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_08</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_09</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>113</v>
+        <v>598</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C73" t="n">
-        <v>458</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_01</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
-        <v>265</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C75" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_07</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C76" t="n">
-        <v>182</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_10</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C77" t="n">
-        <v>773</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C78" t="n">
-        <v>243</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WT_SCR_03</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C79" t="n">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WT_SCR_03</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C80" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WT_SCR_03</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C82" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>WT_SCR_05</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C83" t="n">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>WT_SCR_07</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C85" t="n">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C86" t="n">
-        <v>173</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C87" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>WT_SCR_08</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C88" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C89" t="n">
-        <v>298</v>
+        <v>664</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C90" t="n">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C91" t="n">
-        <v>663</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C92" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C93" t="n">
-        <v>465</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C94" t="n">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C95" t="n">
-        <v>1800</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C96" t="n">
-        <v>606</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_05</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C97" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C98" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C99" t="n">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C100" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_07</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C101" t="n">
-        <v>221</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C102" t="n">
-        <v>201</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_09</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C103" t="n">
-        <v>111</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C105" t="n">
-        <v>80</v>
+        <v>811</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_07</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>34</v>
+        <v>927</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>11</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>11</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_01</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_01</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_02</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_02</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_02</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_02</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_02</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>4</v>
+      </c>
+      <c r="C118" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_02</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_02</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>6</v>
+      </c>
+      <c r="C120" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_02</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
         <v>7</v>
       </c>
-      <c r="C111" t="n">
-        <v>29</v>
+      <c r="C121" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_02</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>8</v>
+      </c>
+      <c r="C122" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_02</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>9</v>
+      </c>
+      <c r="C123" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_07</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_07</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_07</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2</v>
+      </c>
+      <c r="C126" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_07</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>3</v>
+      </c>
+      <c r="C127" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_07</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_07</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_10</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_10</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_10</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2</v>
+      </c>
+      <c r="C132" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_10</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_10</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_10</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_10</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_10</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>WT_SCR_01</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>WT_SCR_01</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>6</v>
+      </c>
+      <c r="C146" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>9</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>10</v>
+      </c>
+      <c r="C150" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>11</v>
+      </c>
+      <c r="C151" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>12</v>
+      </c>
+      <c r="C152" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>13</v>
+      </c>
+      <c r="C153" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>14</v>
+      </c>
+      <c r="C154" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>15</v>
+      </c>
+      <c r="C155" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>16</v>
+      </c>
+      <c r="C156" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>WT_SCR_07</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>17</v>
+      </c>
+      <c r="C157" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>WT_SCR_10</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+      <c r="C174" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>4</v>
+      </c>
+      <c r="C175" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>6</v>
+      </c>
+      <c r="C177" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>7</v>
+      </c>
+      <c r="C178" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>8</v>
+      </c>
+      <c r="C179" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_09</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/PFF_SCR_TAX_ADAM/011124_analysis_by_inclusion_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/011124_analysis_by_inclusion_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>232</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -596,327 +596,327 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>494</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_SCR_01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_SCR_01</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>160</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>94</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>28</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>329</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>95</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>296</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>26</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>30</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>43</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>19</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="42">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>157</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48">
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -1214,115 +1214,115 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_07</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>821</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_08</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>163</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_08</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_09</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_09</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>276</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>528</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_01</t>
+          <t>1K_TAX1BP1_07</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>502</v>
+        <v>994</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1348,13 +1348,13 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>14</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1364,71 +1364,71 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>47</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D60" t="n">
-        <v>15</v>
+        <v>580</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>WT_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>WT_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>203</v>
+        <v>559</v>
       </c>
     </row>
     <row r="63">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>17</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65">
@@ -1470,13 +1470,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -1486,29 +1486,29 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_07</t>
+          <t>WT_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>366</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -1518,13 +1518,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>22</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69">
@@ -1534,13 +1534,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -1550,35 +1550,35 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_10</t>
+          <t>WT_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1219</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>WT_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>470</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="73">
@@ -1598,45 +1598,45 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>18</v>
+        <v>519</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>WT_SCR_01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>489</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>WT_SCR_10</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>261</v>
+        <v>541</v>
       </c>
     </row>
     <row r="76">
@@ -1646,13 +1646,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>1117</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77">
@@ -1662,51 +1662,51 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>18</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>WT_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>WT_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>313</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>WT_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1716,23 +1716,23 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>29</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>WT_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>12</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82">
@@ -1742,13 +1742,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>2384</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>878</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84">
@@ -1774,93 +1774,125 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>64</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1086</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>WT_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>235</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_07</t>
+          <t>WT_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>290</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>WT_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>385</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>WT_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>WT_TAX1BP1_09</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>329</v>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/PFF_SCR_TAX_ADAM/011124_analysis_by_inclusion_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/011124_analysis_by_inclusion_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_01</t>
+          <t>1K_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -468,23 +468,23 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>201</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1K_ADAMTS19_03</t>
+          <t>1K_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>286</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -686,445 +686,445 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1K_SCR_01</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>175</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>553</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1K_SCR_03</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>151</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_SCR_01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_01</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>307</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_SCR_07</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>19</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>144</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>44</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55">
@@ -1310,588 +1310,1468 @@
         </is>
       </c>
       <c r="B55" t="n">
+        <v>11</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
         <v>24</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_07</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>994</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_08</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>189</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_08</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_09</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>257</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1K_TAX1BP1_10</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>580</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_01</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_01</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>559</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>156</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>15</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_02</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_07</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>349</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_07</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_07</t>
+          <t>1K_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_07</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WT_ADAMTS19_10</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1472</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>519</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>WT_SCR_01</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>WT_SCR_10</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>541</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>301</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1231</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_01</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_02</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>153</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_03</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>356</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>2607</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>1015</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_04</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1150</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_06</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>264</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_07</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>286</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>WT_TAX1BP1_08</t>
+          <t>1K_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>373</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>20</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>21</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>22</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>23</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>24</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>25</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>26</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>27</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>28</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>29</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>30</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>31</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>32</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>33</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>34</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>35</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>36</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_09</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1K_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_01</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_02</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_02</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_02</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_02</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_02</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_07</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_07</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_07</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_07</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>WT_ADAMTS19_10</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>WT_SCR_01</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>WT_SCR_01</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>WT_SCR_05</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>WT_SCR_05</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>WT_SCR_10</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>3</v>
+      </c>
+      <c r="D126" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3</v>
+      </c>
+      <c r="D128" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>WT_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
           <t>WT_TAX1BP1_09</t>
         </is>
       </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
         <v>308</v>
       </c>
     </row>
